--- a/biology/Histoire de la zoologie et de la botanique/Edgar_Johnson_Allen/Edgar_Johnson_Allen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edgar_Johnson_Allen/Edgar_Johnson_Allen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edgar Johnson Allen est un biologiste marin  britannique, né le 6 avril 1866 à Preston et mort le 7 décembre 1942 à Plymouth.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allen fait ses études au Yorkshire College (au sein de l’université de Leeds) et à l’université de Berlin. Il reçoit son Bachelor of Sciences à l’université de Londres.
 Il passe presque toute sa carrière à la Marine Biological Association de Plymouth. De janvier 1895 à 1936, il est directeur de la bibliothèque de l’association. Il dirige des recherches sur l’embryogénèse des cétacés. Allen s’intéresse à la régénération. En 1910, Allen met au point une technique pour préparer de l’eau de mer artificielle afin de pouvoir élever des larves aquatiques. De son mariage en 1859 à Emma Johnson il a cinq fils et trois filles.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(nl) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en néerlandais intitulé « Edgar Johnson Allen » (voir la liste des auteurs). (version du 29 juin 2008)</t>
         </is>
